--- a/xlsx/country_comparison/solidarity_support_incl_info_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_incl_info_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,64 +32,64 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
+    <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">Minimum tax of 2% on billionaires'
 wealth, in voluntary countries</t>
   </si>
   <si>
-    <t xml:space="preserve">International levy on carbon emissions from
-shipping, returned to countries based on population</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bridgetown initiative: MDBs expanding sustainable
 investments in LICs, and at lower interest rates</t>
   </si>
   <si>
+    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
+vulnerable countries cope with climate Loss and damage</t>
+  </si>
+  <si>
     <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
 allocating revenues to countries based on sales</t>
   </si>
   <si>
-    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
-vulnerable countries cope with cliamte Loss and damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expand Security Council to new permanent members
-(e.g. India, Brazil, AU), restrict veto use</t>
+    <t xml:space="preserve">International levy on shipping carbon emissions,
+returned to countries based on population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
+payments until they are more able to repay</t>
   </si>
   <si>
     <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expand Security Council to new permanent members (e.g.
+India, Brazil, African Union), restrict veto use</t>
   </si>
   <si>
     <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
 year in climate finance for developing countries</t>
   </si>
   <si>
-    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
-payments until they are more able to repay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on carbon emissions from
-aviation, returned to countries based on population</t>
+    <t xml:space="preserve">International levy on aviation carbon emissions, raising
+prices by 30%, returned to countries based on population</t>
   </si>
 </sst>
 </file>
@@ -449,355 +455,421 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.740557003887504</v>
+        <v>0.64772049951171</v>
       </c>
       <c r="C2" t="n">
-        <v>0.716076338775367</v>
+        <v>0.712366240356865</v>
       </c>
       <c r="D2" t="n">
-        <v>0.759256358087784</v>
+        <v>0.742696359576826</v>
       </c>
       <c r="E2" t="n">
-        <v>0.542952263231744</v>
+        <v>0.710995134721935</v>
       </c>
       <c r="F2" t="n">
-        <v>0.652726822717281</v>
+        <v>0.760672766815359</v>
       </c>
       <c r="G2" t="n">
-        <v>0.681134189183109</v>
+        <v>0.642977765496852</v>
       </c>
       <c r="H2" t="n">
-        <v>0.703896914354045</v>
+        <v>0.681575848784976</v>
       </c>
       <c r="I2" t="n">
-        <v>0.670140842239384</v>
+        <v>0.713411261715929</v>
       </c>
       <c r="J2" t="n">
-        <v>0.698945631724573</v>
+        <v>0.629641703665795</v>
       </c>
       <c r="K2" t="n">
-        <v>0.610866578422751</v>
+        <v>0.540201244726831</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.676418575909491</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.613955823868756</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.614726609198058</v>
+        <v>0.568697068353528</v>
       </c>
       <c r="C3" t="n">
-        <v>0.504168962857286</v>
+        <v>0.619628420955463</v>
       </c>
       <c r="D3" t="n">
-        <v>0.653328865995003</v>
+        <v>0.562331401479152</v>
       </c>
       <c r="E3" t="n">
-        <v>0.315230437642957</v>
+        <v>0.639465139764954</v>
       </c>
       <c r="F3" t="n">
-        <v>0.454744715609315</v>
+        <v>0.736611139000469</v>
       </c>
       <c r="G3" t="n">
-        <v>0.620621111815763</v>
+        <v>0.476907856458833</v>
       </c>
       <c r="H3" t="n">
-        <v>0.579222291771128</v>
+        <v>0.610135064707022</v>
       </c>
       <c r="I3" t="n">
-        <v>0.585307525729828</v>
+        <v>0.634355238096545</v>
       </c>
       <c r="J3" t="n">
-        <v>0.569340537375763</v>
+        <v>0.619550998772412</v>
       </c>
       <c r="K3" t="n">
-        <v>0.476591547641586</v>
+        <v>0.454536355738326</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.66202858126464</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.547502030142064</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.576854816527633</v>
+        <v>0.5520621386964</v>
       </c>
       <c r="C4" t="n">
-        <v>0.64296475855283</v>
+        <v>0.595436648284505</v>
       </c>
       <c r="D4" t="n">
-        <v>0.737997783925222</v>
+        <v>0.54870087134603</v>
       </c>
       <c r="E4" t="n">
-        <v>0.448037746237896</v>
+        <v>0.576101578928853</v>
       </c>
       <c r="F4" t="n">
-        <v>0.498419699743364</v>
+        <v>0.699171512865588</v>
       </c>
       <c r="G4" t="n">
-        <v>0.679975195991707</v>
+        <v>0.541071765389414</v>
       </c>
       <c r="H4" t="n">
-        <v>0.626039110776215</v>
+        <v>0.646493325321455</v>
       </c>
       <c r="I4" t="n">
-        <v>0.629187956319561</v>
+        <v>0.570533410428638</v>
       </c>
       <c r="J4" t="n">
-        <v>0.612018919532</v>
+        <v>0.559194375564361</v>
       </c>
       <c r="K4" t="n">
-        <v>0.534416157179454</v>
+        <v>0.452063570613683</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.723454818445984</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.526987315073764</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.554932377822881</v>
+        <v>0.500300243337663</v>
       </c>
       <c r="C5" t="n">
-        <v>0.582216130001681</v>
+        <v>0.564691810630442</v>
       </c>
       <c r="D5" t="n">
-        <v>0.676085133913025</v>
+        <v>0.552896792747565</v>
       </c>
       <c r="E5" t="n">
-        <v>0.414778063700124</v>
+        <v>0.576202681956603</v>
       </c>
       <c r="F5" t="n">
-        <v>0.443846642016755</v>
+        <v>0.678413604800252</v>
       </c>
       <c r="G5" t="n">
-        <v>0.522304543997742</v>
+        <v>0.452693154182577</v>
       </c>
       <c r="H5" t="n">
-        <v>0.549617381542408</v>
+        <v>0.5266482505151</v>
       </c>
       <c r="I5" t="n">
-        <v>0.444550599840048</v>
+        <v>0.564762251812932</v>
       </c>
       <c r="J5" t="n">
-        <v>0.567376911939282</v>
+        <v>0.457919037639112</v>
       </c>
       <c r="K5" t="n">
-        <v>0.475249166573133</v>
+        <v>0.420597752037892</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.515349537744456</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.457021677014616</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.542916395214198</v>
+        <v>0.491758521681271</v>
       </c>
       <c r="C6" t="n">
-        <v>0.591068025785094</v>
+        <v>0.55823475754271</v>
       </c>
       <c r="D6" t="n">
-        <v>0.680025550740473</v>
+        <v>0.616885662454906</v>
       </c>
       <c r="E6" t="n">
-        <v>0.447199128645719</v>
+        <v>0.498194757038131</v>
       </c>
       <c r="F6" t="n">
-        <v>0.552374200905494</v>
+        <v>0.655596086527675</v>
       </c>
       <c r="G6" t="n">
-        <v>0.733416399719925</v>
+        <v>0.442635184524845</v>
       </c>
       <c r="H6" t="n">
-        <v>0.652011335056148</v>
+        <v>0.567078159565473</v>
       </c>
       <c r="I6" t="n">
-        <v>0.586224380865358</v>
+        <v>0.550190853798826</v>
       </c>
       <c r="J6" t="n">
-        <v>0.580660771227697</v>
+        <v>0.537044871026422</v>
       </c>
       <c r="K6" t="n">
-        <v>0.490545931957448</v>
+        <v>0.315785291047497</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.612378448394504</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.474875234879045</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.536954459030549</v>
+        <v>0.491069100574203</v>
       </c>
       <c r="C7" t="n">
-        <v>0.562894472786869</v>
+        <v>0.525722819688636</v>
       </c>
       <c r="D7" t="n">
-        <v>0.671589558977558</v>
+        <v>0.459080500431683</v>
       </c>
       <c r="E7" t="n">
-        <v>0.349621059125694</v>
+        <v>0.458781066725515</v>
       </c>
       <c r="F7" t="n">
-        <v>0.492047931051188</v>
+        <v>0.641675110784612</v>
       </c>
       <c r="G7" t="n">
-        <v>0.624317418934328</v>
+        <v>0.545977093854542</v>
       </c>
       <c r="H7" t="n">
-        <v>0.597048551804465</v>
+        <v>0.559298862591565</v>
       </c>
       <c r="I7" t="n">
-        <v>0.627049254260543</v>
+        <v>0.537728311867892</v>
       </c>
       <c r="J7" t="n">
-        <v>0.536892839057874</v>
+        <v>0.504863317166247</v>
       </c>
       <c r="K7" t="n">
-        <v>0.419014292449023</v>
+        <v>0.36564899786736</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.712438842119996</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.481593153214107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.528329884468169</v>
+        <v>0.49064174854654</v>
       </c>
       <c r="C8" t="n">
-        <v>0.524614613846827</v>
+        <v>0.533946508340493</v>
       </c>
       <c r="D8" t="n">
-        <v>0.610360110663436</v>
+        <v>0.506519147183543</v>
       </c>
       <c r="E8" t="n">
-        <v>0.334547361570676</v>
+        <v>0.524359882203378</v>
       </c>
       <c r="F8" t="n">
-        <v>0.450813722234341</v>
+        <v>0.607577122994542</v>
       </c>
       <c r="G8" t="n">
-        <v>0.684281398801193</v>
+        <v>0.429841940398982</v>
       </c>
       <c r="H8" t="n">
-        <v>0.614933062201649</v>
+        <v>0.613044742896228</v>
       </c>
       <c r="I8" t="n">
-        <v>0.508576570340973</v>
+        <v>0.513325466250931</v>
       </c>
       <c r="J8" t="n">
-        <v>0.512077207505819</v>
+        <v>0.497255688373242</v>
       </c>
       <c r="K8" t="n">
-        <v>0.483157585079465</v>
+        <v>0.339480977615254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.680866887635739</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.484232907677579</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.515950292743943</v>
+        <v>0.488712371890221</v>
       </c>
       <c r="C9" t="n">
-        <v>0.558798819841727</v>
+        <v>0.560141602465186</v>
       </c>
       <c r="D9" t="n">
-        <v>0.632147806572371</v>
+        <v>0.523596617569118</v>
       </c>
       <c r="E9" t="n">
-        <v>0.323519317831428</v>
+        <v>0.557915806192381</v>
       </c>
       <c r="F9" t="n">
-        <v>0.471301323864747</v>
+        <v>0.666600942952523</v>
       </c>
       <c r="G9" t="n">
-        <v>0.658633292496816</v>
+        <v>0.498448275550336</v>
       </c>
       <c r="H9" t="n">
-        <v>0.595828405791215</v>
+        <v>0.576020834990345</v>
       </c>
       <c r="I9" t="n">
-        <v>0.552787082439863</v>
+        <v>0.530414653922057</v>
       </c>
       <c r="J9" t="n">
-        <v>0.499514349344516</v>
+        <v>0.526806759145691</v>
       </c>
       <c r="K9" t="n">
-        <v>0.462396372994499</v>
+        <v>0.350326115143773</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.620746866224121</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.450289311525178</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.475687809769864</v>
+        <v>0.480176998324609</v>
       </c>
       <c r="C10" t="n">
-        <v>0.455011580971003</v>
+        <v>0.540077971602762</v>
       </c>
       <c r="D10" t="n">
-        <v>0.645265110748041</v>
+        <v>0.498434567315855</v>
       </c>
       <c r="E10" t="n">
-        <v>0.367268332696128</v>
+        <v>0.550056802451646</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5648451595684</v>
+        <v>0.618459379346751</v>
       </c>
       <c r="G10" t="n">
-        <v>0.714178936118952</v>
+        <v>0.46229075600601</v>
       </c>
       <c r="H10" t="n">
-        <v>0.554413060633745</v>
+        <v>0.589232979402469</v>
       </c>
       <c r="I10" t="n">
-        <v>0.496642839697029</v>
+        <v>0.50821450255576</v>
       </c>
       <c r="J10" t="n">
-        <v>0.532653020251658</v>
+        <v>0.524541777238559</v>
       </c>
       <c r="K10" t="n">
-        <v>0.458016430559702</v>
+        <v>0.328085006052026</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.661272477866722</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.456000886948843</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.467472772529203</v>
+        <v>0.378486267622363</v>
       </c>
       <c r="C11" t="n">
-        <v>0.421578541777063</v>
+        <v>0.427455140174775</v>
       </c>
       <c r="D11" t="n">
-        <v>0.429617528927304</v>
+        <v>0.454045954557752</v>
       </c>
       <c r="E11" t="n">
-        <v>0.26044974148733</v>
+        <v>0.439061670463719</v>
       </c>
       <c r="F11" t="n">
-        <v>0.375298996045607</v>
+        <v>0.448434210719458</v>
       </c>
       <c r="G11" t="n">
-        <v>0.519134281483559</v>
+        <v>0.373101567288823</v>
       </c>
       <c r="H11" t="n">
-        <v>0.449689268504765</v>
+        <v>0.431860563145826</v>
       </c>
       <c r="I11" t="n">
-        <v>0.404336418773033</v>
+        <v>0.399346691171675</v>
       </c>
       <c r="J11" t="n">
-        <v>0.44505430293435</v>
+        <v>0.395334717653603</v>
       </c>
       <c r="K11" t="n">
-        <v>0.377593950870076</v>
+        <v>0.260645727814513</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.514003595282182</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.357259108645471</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_incl_info_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_incl_info_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -65,27 +68,27 @@
 vulnerable countries cope with climate Loss and damage</t>
   </si>
   <si>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
+year in climate finance for developing countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
+payments until they are more able to repay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International levy on shipping carbon emissions,
+returned to countries based on population</t>
+  </si>
+  <si>
     <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
 allocating revenues to countries based on sales</t>
   </si>
   <si>
-    <t xml:space="preserve">International levy on shipping carbon emissions,
-returned to countries based on population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
-payments until they are more able to repay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
-  </si>
-  <si>
     <t xml:space="preserve">Expand Security Council to new permanent members (e.g.
 India, Brazil, African Union), restrict veto use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
-year in climate finance for developing countries</t>
   </si>
   <si>
     <t xml:space="preserve">International levy on aviation carbon emissions, raising
@@ -461,13 +464,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.64772049951171</v>
+        <v>0.639468648683742</v>
       </c>
       <c r="C2" t="n">
         <v>0.712366240356865</v>
@@ -497,30 +503,33 @@
         <v>0.540201244726831</v>
       </c>
       <c r="L2" t="n">
+        <v>0.588834265165392</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.676418575909491</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.613955823868756</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.568697068353528</v>
+        <v>0.570075652034837</v>
       </c>
       <c r="C3" t="n">
         <v>0.619628420955463</v>
       </c>
       <c r="D3" t="n">
-        <v>0.562331401479152</v>
+        <v>0.562331401479153</v>
       </c>
       <c r="E3" t="n">
         <v>0.639465139764954</v>
       </c>
       <c r="F3" t="n">
-        <v>0.736611139000469</v>
+        <v>0.736611139000468</v>
       </c>
       <c r="G3" t="n">
         <v>0.476907856458833</v>
@@ -538,18 +547,21 @@
         <v>0.454536355738326</v>
       </c>
       <c r="L3" t="n">
+        <v>0.582424723036794</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.66202858126464</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.547502030142064</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5520621386964</v>
+        <v>0.556653468620484</v>
       </c>
       <c r="C4" t="n">
         <v>0.595436648284505</v>
@@ -567,7 +579,7 @@
         <v>0.541071765389414</v>
       </c>
       <c r="H4" t="n">
-        <v>0.646493325321455</v>
+        <v>0.646493325321456</v>
       </c>
       <c r="I4" t="n">
         <v>0.570533410428638</v>
@@ -579,100 +591,109 @@
         <v>0.452063570613683</v>
       </c>
       <c r="L4" t="n">
+        <v>0.592449767721878</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.723454818445984</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.526987315073764</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.500300243337663</v>
+        <v>0.501072338369774</v>
       </c>
       <c r="C5" t="n">
-        <v>0.564691810630442</v>
+        <v>0.533946508340493</v>
       </c>
       <c r="D5" t="n">
-        <v>0.552896792747565</v>
+        <v>0.506519147183543</v>
       </c>
       <c r="E5" t="n">
-        <v>0.576202681956603</v>
+        <v>0.524359882203378</v>
       </c>
       <c r="F5" t="n">
-        <v>0.678413604800252</v>
+        <v>0.607577122994542</v>
       </c>
       <c r="G5" t="n">
-        <v>0.452693154182577</v>
+        <v>0.429841940398982</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5266482505151</v>
+        <v>0.613044742896228</v>
       </c>
       <c r="I5" t="n">
-        <v>0.564762251812932</v>
+        <v>0.513325466250931</v>
       </c>
       <c r="J5" t="n">
-        <v>0.457919037639112</v>
+        <v>0.497255688373242</v>
       </c>
       <c r="K5" t="n">
-        <v>0.420597752037892</v>
+        <v>0.339480977615254</v>
       </c>
       <c r="L5" t="n">
-        <v>0.515349537744456</v>
+        <v>0.569785283200551</v>
       </c>
       <c r="M5" t="n">
-        <v>0.457021677014616</v>
+        <v>0.680866887635739</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.484232907677579</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.491758521681271</v>
+        <v>0.493518808644949</v>
       </c>
       <c r="C6" t="n">
-        <v>0.55823475754271</v>
+        <v>0.540077971602762</v>
       </c>
       <c r="D6" t="n">
-        <v>0.616885662454906</v>
+        <v>0.498434567315855</v>
       </c>
       <c r="E6" t="n">
-        <v>0.498194757038131</v>
+        <v>0.550056802451646</v>
       </c>
       <c r="F6" t="n">
-        <v>0.655596086527675</v>
+        <v>0.618459379346751</v>
       </c>
       <c r="G6" t="n">
-        <v>0.442635184524845</v>
+        <v>0.46229075600601</v>
       </c>
       <c r="H6" t="n">
-        <v>0.567078159565473</v>
+        <v>0.589232979402469</v>
       </c>
       <c r="I6" t="n">
-        <v>0.550190853798826</v>
+        <v>0.50821450255576</v>
       </c>
       <c r="J6" t="n">
-        <v>0.537044871026422</v>
+        <v>0.524541777238559</v>
       </c>
       <c r="K6" t="n">
-        <v>0.315785291047497</v>
+        <v>0.328085006052026</v>
       </c>
       <c r="L6" t="n">
-        <v>0.612378448394504</v>
+        <v>0.579156476144616</v>
       </c>
       <c r="M6" t="n">
-        <v>0.474875234879045</v>
+        <v>0.661272477866722</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.456000886948843</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.491069100574203</v>
+        <v>0.491715187213474</v>
       </c>
       <c r="C7" t="n">
         <v>0.525722819688636</v>
@@ -702,141 +723,153 @@
         <v>0.36564899786736</v>
       </c>
       <c r="L7" t="n">
+        <v>0.501267319649773</v>
+      </c>
+      <c r="M7" t="n">
         <v>0.712438842119996</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>0.481593153214107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.49064174854654</v>
+        <v>0.488529038074908</v>
       </c>
       <c r="C8" t="n">
-        <v>0.533946508340493</v>
+        <v>0.55823475754271</v>
       </c>
       <c r="D8" t="n">
-        <v>0.506519147183543</v>
+        <v>0.616885662454906</v>
       </c>
       <c r="E8" t="n">
-        <v>0.524359882203378</v>
+        <v>0.498194757038131</v>
       </c>
       <c r="F8" t="n">
-        <v>0.607577122994542</v>
+        <v>0.655596086527675</v>
       </c>
       <c r="G8" t="n">
-        <v>0.429841940398982</v>
+        <v>0.442635184524845</v>
       </c>
       <c r="H8" t="n">
-        <v>0.613044742896228</v>
+        <v>0.567078159565473</v>
       </c>
       <c r="I8" t="n">
-        <v>0.513325466250931</v>
+        <v>0.550190853798826</v>
       </c>
       <c r="J8" t="n">
-        <v>0.497255688373242</v>
+        <v>0.537044871026423</v>
       </c>
       <c r="K8" t="n">
-        <v>0.339480977615254</v>
+        <v>0.315785291047497</v>
       </c>
       <c r="L8" t="n">
-        <v>0.680866887635739</v>
+        <v>0.470233534331034</v>
       </c>
       <c r="M8" t="n">
-        <v>0.484232907677579</v>
+        <v>0.612378448394504</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.474875234879045</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.488712371890221</v>
+        <v>0.480384667894609</v>
       </c>
       <c r="C9" t="n">
-        <v>0.560141602465186</v>
+        <v>0.564691810630442</v>
       </c>
       <c r="D9" t="n">
-        <v>0.523596617569118</v>
+        <v>0.552896792747565</v>
       </c>
       <c r="E9" t="n">
-        <v>0.557915806192381</v>
+        <v>0.576202681956603</v>
       </c>
       <c r="F9" t="n">
-        <v>0.666600942952523</v>
+        <v>0.678413604800252</v>
       </c>
       <c r="G9" t="n">
-        <v>0.498448275550336</v>
+        <v>0.452693154182577</v>
       </c>
       <c r="H9" t="n">
-        <v>0.576020834990345</v>
+        <v>0.5266482505151</v>
       </c>
       <c r="I9" t="n">
-        <v>0.530414653922057</v>
+        <v>0.564762251812932</v>
       </c>
       <c r="J9" t="n">
-        <v>0.526806759145691</v>
+        <v>0.457919037639112</v>
       </c>
       <c r="K9" t="n">
-        <v>0.350326115143773</v>
+        <v>0.420597752037892</v>
       </c>
       <c r="L9" t="n">
-        <v>0.620746866224121</v>
+        <v>0.358180218735822</v>
       </c>
       <c r="M9" t="n">
-        <v>0.450289311525178</v>
+        <v>0.515349537744456</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.457021677014616</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.480176998324609</v>
+        <v>0.479769789012593</v>
       </c>
       <c r="C10" t="n">
-        <v>0.540077971602762</v>
+        <v>0.560141602465186</v>
       </c>
       <c r="D10" t="n">
-        <v>0.498434567315855</v>
+        <v>0.523596617569118</v>
       </c>
       <c r="E10" t="n">
-        <v>0.550056802451646</v>
+        <v>0.557915806192381</v>
       </c>
       <c r="F10" t="n">
-        <v>0.618459379346751</v>
+        <v>0.666600942952523</v>
       </c>
       <c r="G10" t="n">
-        <v>0.46229075600601</v>
+        <v>0.498448275550336</v>
       </c>
       <c r="H10" t="n">
-        <v>0.589232979402469</v>
+        <v>0.576020834990345</v>
       </c>
       <c r="I10" t="n">
-        <v>0.50821450255576</v>
+        <v>0.530414653922057</v>
       </c>
       <c r="J10" t="n">
-        <v>0.524541777238559</v>
+        <v>0.526806759145691</v>
       </c>
       <c r="K10" t="n">
-        <v>0.328085006052026</v>
+        <v>0.350326115143773</v>
       </c>
       <c r="L10" t="n">
-        <v>0.661272477866722</v>
+        <v>0.370872806257175</v>
       </c>
       <c r="M10" t="n">
-        <v>0.456000886948843</v>
+        <v>0.620746866224121</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.450289311525178</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.378486267622363</v>
+        <v>0.377143255338123</v>
       </c>
       <c r="C11" t="n">
         <v>0.427455140174775</v>
@@ -866,9 +899,12 @@
         <v>0.260645727814513</v>
       </c>
       <c r="L11" t="n">
+        <v>0.366758341643305</v>
+      </c>
+      <c r="M11" t="n">
         <v>0.514003595282182</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>0.357259108645471</v>
       </c>
     </row>

--- a/xlsx/country_comparison/solidarity_support_incl_info_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_incl_info_positive.xlsx
@@ -473,7 +473,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.639468648683742</v>
+        <v>0.638665722778032</v>
       </c>
       <c r="C2" t="n">
         <v>0.712366240356865</v>
@@ -500,16 +500,16 @@
         <v>0.629641703665795</v>
       </c>
       <c r="K2" t="n">
-        <v>0.540201244726831</v>
+        <v>0.540250589217213</v>
       </c>
       <c r="L2" t="n">
-        <v>0.588834265165392</v>
+        <v>0.583644829216747</v>
       </c>
       <c r="M2" t="n">
         <v>0.676418575909491</v>
       </c>
       <c r="N2" t="n">
-        <v>0.613955823868756</v>
+        <v>0.613804528949548</v>
       </c>
     </row>
     <row r="3">
@@ -517,7 +517,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.570075652034837</v>
+        <v>0.567431553913714</v>
       </c>
       <c r="C3" t="n">
         <v>0.619628420955463</v>
@@ -529,7 +529,7 @@
         <v>0.639465139764954</v>
       </c>
       <c r="F3" t="n">
-        <v>0.736611139000468</v>
+        <v>0.736611139000469</v>
       </c>
       <c r="G3" t="n">
         <v>0.476907856458833</v>
@@ -544,16 +544,16 @@
         <v>0.619550998772412</v>
       </c>
       <c r="K3" t="n">
-        <v>0.454536355738326</v>
+        <v>0.454763988800742</v>
       </c>
       <c r="L3" t="n">
-        <v>0.582424723036794</v>
+        <v>0.566244954822168</v>
       </c>
       <c r="M3" t="n">
         <v>0.66202858126464</v>
       </c>
       <c r="N3" t="n">
-        <v>0.547502030142064</v>
+        <v>0.547449004875065</v>
       </c>
     </row>
     <row r="4">
@@ -561,7 +561,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.556653468620484</v>
+        <v>0.555344455602302</v>
       </c>
       <c r="C4" t="n">
         <v>0.595436648284505</v>
@@ -588,16 +588,16 @@
         <v>0.559194375564361</v>
       </c>
       <c r="K4" t="n">
-        <v>0.452063570613683</v>
+        <v>0.452271324998767</v>
       </c>
       <c r="L4" t="n">
-        <v>0.592449767721878</v>
+        <v>0.582472537227725</v>
       </c>
       <c r="M4" t="n">
         <v>0.723454818445984</v>
       </c>
       <c r="N4" t="n">
-        <v>0.526987315073764</v>
+        <v>0.527045938028965</v>
       </c>
     </row>
     <row r="5">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.501072338369774</v>
+        <v>0.50130347410966</v>
       </c>
       <c r="C5" t="n">
         <v>0.533946508340493</v>
@@ -632,16 +632,16 @@
         <v>0.497255688373242</v>
       </c>
       <c r="K5" t="n">
-        <v>0.339480977615254</v>
+        <v>0.339691396434735</v>
       </c>
       <c r="L5" t="n">
-        <v>0.569785283200551</v>
+        <v>0.572223498223179</v>
       </c>
       <c r="M5" t="n">
         <v>0.680866887635739</v>
       </c>
       <c r="N5" t="n">
-        <v>0.484232907677579</v>
+        <v>0.484225194294323</v>
       </c>
     </row>
     <row r="6">
@@ -649,7 +649,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.493518808644949</v>
+        <v>0.494042619036955</v>
       </c>
       <c r="C6" t="n">
         <v>0.540077971602762</v>
@@ -676,16 +676,16 @@
         <v>0.524541777238559</v>
       </c>
       <c r="K6" t="n">
-        <v>0.328085006052026</v>
+        <v>0.328236734725489</v>
       </c>
       <c r="L6" t="n">
-        <v>0.579156476144616</v>
+        <v>0.583489350682985</v>
       </c>
       <c r="M6" t="n">
         <v>0.661272477866722</v>
       </c>
       <c r="N6" t="n">
-        <v>0.456000886948843</v>
+        <v>0.455937752846232</v>
       </c>
     </row>
     <row r="7">
@@ -693,7 +693,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.491715187213474</v>
+        <v>0.490655362928479</v>
       </c>
       <c r="C7" t="n">
         <v>0.525722819688636</v>
@@ -720,16 +720,16 @@
         <v>0.504863317166247</v>
       </c>
       <c r="K7" t="n">
-        <v>0.36564899786736</v>
+        <v>0.365701377881775</v>
       </c>
       <c r="L7" t="n">
-        <v>0.501267319649773</v>
+        <v>0.495615672214494</v>
       </c>
       <c r="M7" t="n">
         <v>0.712438842119996</v>
       </c>
       <c r="N7" t="n">
-        <v>0.481593153214107</v>
+        <v>0.481729715314088</v>
       </c>
     </row>
     <row r="8">
@@ -737,7 +737,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.488529038074908</v>
+        <v>0.486367060267315</v>
       </c>
       <c r="C8" t="n">
         <v>0.55823475754271</v>
@@ -761,19 +761,19 @@
         <v>0.550190853798826</v>
       </c>
       <c r="J8" t="n">
-        <v>0.537044871026423</v>
+        <v>0.537044871026422</v>
       </c>
       <c r="K8" t="n">
-        <v>0.315785291047497</v>
+        <v>0.315893971140927</v>
       </c>
       <c r="L8" t="n">
-        <v>0.470233534331034</v>
+        <v>0.453289286617075</v>
       </c>
       <c r="M8" t="n">
         <v>0.612378448394504</v>
       </c>
       <c r="N8" t="n">
-        <v>0.474875234879045</v>
+        <v>0.474756141069492</v>
       </c>
     </row>
     <row r="9">
@@ -781,7 +781,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.480384667894609</v>
+        <v>0.481241088566596</v>
       </c>
       <c r="C9" t="n">
         <v>0.564691810630442</v>
@@ -808,16 +808,16 @@
         <v>0.457919037639112</v>
       </c>
       <c r="K9" t="n">
-        <v>0.420597752037892</v>
+        <v>0.420810414510251</v>
       </c>
       <c r="L9" t="n">
-        <v>0.358180218735822</v>
+        <v>0.364456326664824</v>
       </c>
       <c r="M9" t="n">
         <v>0.515349537744456</v>
       </c>
       <c r="N9" t="n">
-        <v>0.457021677014616</v>
+        <v>0.456964185261476</v>
       </c>
     </row>
     <row r="10">
@@ -825,7 +825,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.479769789012593</v>
+        <v>0.477954602429583</v>
       </c>
       <c r="C10" t="n">
         <v>0.560141602465186</v>
@@ -852,16 +852,16 @@
         <v>0.526806759145691</v>
       </c>
       <c r="K10" t="n">
-        <v>0.350326115143773</v>
+        <v>0.350511153488336</v>
       </c>
       <c r="L10" t="n">
-        <v>0.370872806257175</v>
+        <v>0.349016296615525</v>
       </c>
       <c r="M10" t="n">
         <v>0.620746866224121</v>
       </c>
       <c r="N10" t="n">
-        <v>0.450289311525178</v>
+        <v>0.45006847466715</v>
       </c>
     </row>
     <row r="11">
@@ -869,7 +869,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.377143255338123</v>
+        <v>0.37503586986501</v>
       </c>
       <c r="C11" t="n">
         <v>0.427455140174775</v>
@@ -896,16 +896,16 @@
         <v>0.395334717653603</v>
       </c>
       <c r="K11" t="n">
-        <v>0.260645727814513</v>
+        <v>0.260747159004789</v>
       </c>
       <c r="L11" t="n">
-        <v>0.366758341643305</v>
+        <v>0.351533203159595</v>
       </c>
       <c r="M11" t="n">
         <v>0.514003595282182</v>
       </c>
       <c r="N11" t="n">
-        <v>0.357259108645471</v>
+        <v>0.357192173089113</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_incl_info_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_incl_info_positive.xlsx
@@ -473,7 +473,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.638665722778032</v>
+        <v>0.638944733905477</v>
       </c>
       <c r="C2" t="n">
         <v>0.712366240356865</v>
@@ -482,7 +482,7 @@
         <v>0.742696359576826</v>
       </c>
       <c r="E2" t="n">
-        <v>0.710995134721935</v>
+        <v>0.710995134721934</v>
       </c>
       <c r="F2" t="n">
         <v>0.760672766815359</v>
@@ -503,7 +503,7 @@
         <v>0.540250589217213</v>
       </c>
       <c r="L2" t="n">
-        <v>0.583644829216747</v>
+        <v>0.585638495583272</v>
       </c>
       <c r="M2" t="n">
         <v>0.676418575909491</v>
@@ -517,19 +517,19 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.567431553913714</v>
+        <v>0.567433729185937</v>
       </c>
       <c r="C3" t="n">
         <v>0.619628420955463</v>
       </c>
       <c r="D3" t="n">
-        <v>0.562331401479153</v>
+        <v>0.562331401479152</v>
       </c>
       <c r="E3" t="n">
         <v>0.639465139764954</v>
       </c>
       <c r="F3" t="n">
-        <v>0.736611139000469</v>
+        <v>0.736611139000468</v>
       </c>
       <c r="G3" t="n">
         <v>0.476907856458833</v>
@@ -547,13 +547,13 @@
         <v>0.454763988800742</v>
       </c>
       <c r="L3" t="n">
-        <v>0.566244954822168</v>
+        <v>0.559773492957012</v>
       </c>
       <c r="M3" t="n">
         <v>0.66202858126464</v>
       </c>
       <c r="N3" t="n">
-        <v>0.547449004875065</v>
+        <v>0.547449004875064</v>
       </c>
     </row>
     <row r="4">
@@ -561,7 +561,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.555344455602302</v>
+        <v>0.555598978955166</v>
       </c>
       <c r="C4" t="n">
         <v>0.595436648284505</v>
@@ -591,7 +591,7 @@
         <v>0.452271324998767</v>
       </c>
       <c r="L4" t="n">
-        <v>0.582472537227725</v>
+        <v>0.577262967106327</v>
       </c>
       <c r="M4" t="n">
         <v>0.723454818445984</v>
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.50130347410966</v>
+        <v>0.501612809274381</v>
       </c>
       <c r="C5" t="n">
         <v>0.533946508340493</v>
@@ -635,7 +635,7 @@
         <v>0.339691396434735</v>
       </c>
       <c r="L5" t="n">
-        <v>0.572223498223179</v>
+        <v>0.568918525741762</v>
       </c>
       <c r="M5" t="n">
         <v>0.680866887635739</v>
@@ -649,7 +649,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.494042619036955</v>
+        <v>0.494241851994654</v>
       </c>
       <c r="C6" t="n">
         <v>0.540077971602762</v>
@@ -679,7 +679,7 @@
         <v>0.328236734725489</v>
       </c>
       <c r="L6" t="n">
-        <v>0.583489350682985</v>
+        <v>0.581005981112582</v>
       </c>
       <c r="M6" t="n">
         <v>0.661272477866722</v>
@@ -693,7 +693,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.490655362928479</v>
+        <v>0.490645913220294</v>
       </c>
       <c r="C7" t="n">
         <v>0.525722819688636</v>
@@ -723,7 +723,7 @@
         <v>0.365701377881775</v>
       </c>
       <c r="L7" t="n">
-        <v>0.495615672214494</v>
+        <v>0.48776176449086</v>
       </c>
       <c r="M7" t="n">
         <v>0.712438842119996</v>
@@ -737,7 +737,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.486367060267315</v>
+        <v>0.486657556163841</v>
       </c>
       <c r="C8" t="n">
         <v>0.55823475754271</v>
@@ -767,7 +767,7 @@
         <v>0.315893971140927</v>
       </c>
       <c r="L8" t="n">
-        <v>0.453289286617075</v>
+        <v>0.455612393245041</v>
       </c>
       <c r="M8" t="n">
         <v>0.612378448394504</v>
@@ -781,7 +781,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.481241088566596</v>
+        <v>0.481438293476304</v>
       </c>
       <c r="C9" t="n">
         <v>0.564691810630442</v>
@@ -790,7 +790,7 @@
         <v>0.552896792747565</v>
       </c>
       <c r="E9" t="n">
-        <v>0.576202681956603</v>
+        <v>0.576202681956602</v>
       </c>
       <c r="F9" t="n">
         <v>0.678413604800252</v>
@@ -811,7 +811,7 @@
         <v>0.420810414510251</v>
       </c>
       <c r="L9" t="n">
-        <v>0.364456326664824</v>
+        <v>0.365865448943918</v>
       </c>
       <c r="M9" t="n">
         <v>0.515349537744456</v>
@@ -825,7 +825,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.477954602429583</v>
+        <v>0.478003480874581</v>
       </c>
       <c r="C10" t="n">
         <v>0.560141602465186</v>
@@ -855,7 +855,7 @@
         <v>0.350511153488336</v>
       </c>
       <c r="L10" t="n">
-        <v>0.349016296615525</v>
+        <v>0.349930643239213</v>
       </c>
       <c r="M10" t="n">
         <v>0.620746866224121</v>
@@ -869,7 +869,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.37503586986501</v>
+        <v>0.375153169606895</v>
       </c>
       <c r="C11" t="n">
         <v>0.427455140174775</v>
@@ -899,7 +899,7 @@
         <v>0.260747159004789</v>
       </c>
       <c r="L11" t="n">
-        <v>0.351533203159595</v>
+        <v>0.354909165053729</v>
       </c>
       <c r="M11" t="n">
         <v>0.514003595282182</v>
